--- a/biology/Zoologie/Acanthuroidei/Acanthuroidei.xlsx
+++ b/biology/Zoologie/Acanthuroidei/Acanthuroidei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sous-ordre des Acanthuroidei regroupe six familles de poissons de l'ordre des Acanthuriformes.
 </t>
@@ -511,17 +523,19 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (4 mai 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 mai 2016) :
 famille Acanthuridae Bonaparte, 1835 -- poissons-chirurgiens
 famille Ephippidae Bleeker, 1859 -- Platax et apparentés
 famille Luvaridae Gill, 1885
 famille Scatophagidae Gill, 1883
 famille Siganidae Richardson, 1837 -- poissons-lapins
 famille Zanclidae Bleeker, 1876 -- une espèce : l'idole des Maures
-Selon Paleobiology Database                   (17 février 2019)[2] :
-famille † Acanthonemidae Crowson, 1970[3]
+Selon Paleobiology Database                   (17 février 2019) :
+famille † Acanthonemidae Crowson, 1970
 			Zebrasoma flavescens (Acanthuridae)
 			Platax orbicularis (Ephippidae)
 			Luvarus imperialis (Luvaridae)
